--- a/biology/Zoologie/Halichoeres_discolor/Halichoeres_discolor.xlsx
+++ b/biology/Zoologie/Halichoeres_discolor/Halichoeres_discolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halichoeres discolor est une espèce de poissons osseux de la famille des Labridae endémique du Costa Rica[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halichoeres discolor est une espèce de poissons osseux de la famille des Labridae endémique du Costa Rica.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halichoeres discolor n'est connu que de l'île Cocos au Costa Rica[1] où il se rencontre dans les récifs à une profondeur comprise entre 4 et 30 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halichoeres discolor n'est connu que de l'île Cocos au Costa Rica où il se rencontre dans les récifs à une profondeur comprise entre 4 et 30 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut mesurer jusqu'à 15 cm de longueur totale mais sa taille habituelle est d'environ 10 cm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut mesurer jusqu'à 15 cm de longueur totale mais sa taille habituelle est d'environ 10 cm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin discolor, « coloration variée », fait référence aux motifs marbrés que présente la livrée des juvéniles, contrairement aux motifs rayés des adultes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin discolor, « coloration variée », fait référence aux motifs marbrés que présente la livrée des juvéniles, contrairement aux motifs rayés des adultes.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(es) William A. Bussing, « A new tropical eastern Pacific labrid fish, Halichoeres discolor endemic to Isla del Coco, Costa Rica », Revista de Biología Tropical, Costa Rica, vol. 31, no 1,‎ 1983, p. 19-23 (ISSN 0034-7744).</t>
         </is>
